--- a/Team-Data/2013-14/4-10-2013-14.xlsx
+++ b/Team-Data/2013-14/4-10-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1356,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
         <v>9</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
@@ -1723,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" t="n">
         <v>48</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.608</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
@@ -1779,13 +1846,13 @@
         <v>83.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N8" t="n">
         <v>0.385</v>
@@ -1815,16 +1882,16 @@
         <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X8" t="n">
         <v>4.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
         <v>20</v>
@@ -1833,7 +1900,7 @@
         <v>104.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1842,10 +1909,10 @@
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>20</v>
@@ -1893,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>21</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
         <v>44</v>
       </c>
       <c r="G9" t="n">
-        <v>0.443</v>
+        <v>0.436</v>
       </c>
       <c r="H9" t="n">
         <v>48.2</v>
@@ -1958,37 +2025,37 @@
         <v>38.5</v>
       </c>
       <c r="J9" t="n">
-        <v>86</v>
+        <v>85.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L9" t="n">
         <v>8.6</v>
       </c>
       <c r="M9" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
         <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="U9" t="n">
         <v>22.4</v>
@@ -2000,28 +2067,28 @@
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>21.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>19</v>
@@ -2030,7 +2097,7 @@
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>12</v>
@@ -2039,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
@@ -2066,7 +2133,7 @@
         <v>8</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2248,7 +2315,7 @@
         <v>21</v>
       </c>
       <c r="AT10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
         <v>48</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="n">
-        <v>0.615</v>
+        <v>0.623</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J11" t="n">
         <v>85</v>
@@ -2328,22 +2395,22 @@
         <v>0.461</v>
       </c>
       <c r="L11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M11" t="n">
         <v>24.6</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O11" t="n">
         <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R11" t="n">
         <v>10.9</v>
@@ -2352,10 +2419,10 @@
         <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U11" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2373,16 +2440,16 @@
         <v>21.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2415,7 +2482,7 @@
         <v>5</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
@@ -2424,22 +2491,22 @@
         <v>19</v>
       </c>
       <c r="AR11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
@@ -2451,13 +2518,13 @@
         <v>21</v>
       </c>
       <c r="BA11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>6</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>18</v>
@@ -2639,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3179,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>1.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>17</v>
@@ -3850,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI19" t="n">
         <v>7</v>
@@ -3904,7 +3971,7 @@
         <v>24</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4223,7 +4290,7 @@
         <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>27</v>
@@ -4599,7 +4666,7 @@
         <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-10.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4978,7 +5045,7 @@
         <v>16</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU25" t="n">
         <v>29</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" t="n">
         <v>18</v>
       </c>
       <c r="G28" t="n">
-        <v>0.772</v>
+        <v>0.769</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="J28" t="n">
         <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.489</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.399</v>
+        <v>0.398</v>
       </c>
       <c r="O28" t="n">
         <v>15.8</v>
@@ -5437,10 +5504,10 @@
         <v>20.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R28" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
         <v>33.9</v>
@@ -5452,7 +5519,7 @@
         <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W28" t="n">
         <v>7.4</v>
@@ -5467,16 +5534,16 @@
         <v>18.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB28" t="n">
         <v>105.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5542,10 +5609,10 @@
         <v>16</v>
       </c>
       <c r="AZ28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BB28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5882,7 +5949,7 @@
         <v>22</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-10-2013-14</t>
+          <t>2014-04-10</t>
         </is>
       </c>
     </row>
